--- a/thresholds/IGCSE/food-and-nutrition/food-and-nutrition-thresholds.xlsx
+++ b/thresholds/IGCSE/food-and-nutrition/food-and-nutrition-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,48 +616,48 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -676,17 +676,17 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -717,17 +717,17 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BX 11,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -780,48 +780,48 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BX 11,82</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,77 +862,77 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>200</v>
       </c>
       <c r="C11" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D11" t="n">
         <v>143</v>
       </c>
       <c r="E11" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" t="n">
         <v>58</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" t="n">
         <v>123</v>
       </c>
       <c r="F12" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G12" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="n">
         <v>58</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -944,36 +944,36 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E13" t="n">
         <v>123</v>
       </c>
       <c r="F13" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G13" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" t="n">
         <v>58</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -985,36 +985,36 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>BY (BY1) 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
         <v>123</v>
       </c>
       <c r="F14" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G14" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="n">
         <v>58</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>BY (BY2) 12,92</t>
+          <t>BY (BY1) 12,82</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1067,23 +1067,23 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY (BY2) 12,92</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D16" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E16" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F16" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G16" t="n">
         <v>87</v>
@@ -1101,14 +1101,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1149,7 +1149,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82/92</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,7 +1231,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,82/92</t>
+          <t>BY 12,82/92</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1272,20 +1272,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BZ 13,82/92</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E21" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" t="n">
         <v>101</v>
@@ -1294,26 +1294,26 @@
         <v>87</v>
       </c>
       <c r="H21" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1354,7 +1354,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1395,7 +1395,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,82/92</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1436,20 +1436,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BZ 13,82/92</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" t="n">
         <v>101</v>
@@ -1458,26 +1458,26 @@
         <v>87</v>
       </c>
       <c r="H25" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,7 +1518,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1559,7 +1559,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BX 11,82/92</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1592,6 +1592,47 @@
         </is>
       </c>
       <c r="K28" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>BX 11,82/92</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" t="n">
+        <v>155</v>
+      </c>
+      <c r="D29" t="n">
+        <v>137</v>
+      </c>
+      <c r="E29" t="n">
+        <v>119</v>
+      </c>
+      <c r="F29" t="n">
+        <v>101</v>
+      </c>
+      <c r="G29" t="n">
+        <v>87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>73</v>
+      </c>
+      <c r="I29" t="n">
+        <v>58</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
